--- a/biology/Zoologie/Oligonila_defectuosa/Oligonila_defectuosa.xlsx
+++ b/biology/Zoologie/Oligonila_defectuosa/Oligonila_defectuosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oligonila
 Oligonila est un genre fossile de cicadelle ou insectes suceurs de l'ordre des hémiptères, de la super-famille des Fulgoroidea.
@@ -513,16 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Oligonila est décrit en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. Ce genre est pourvu de deux espèces Oligonila försteri, l'espèce type, et Oligonila defectuosa[2].
-Fossiles
-Les spécimens et holotypes viennent du gisement sannoisien de Brunstatt (ou Brunnstatt), près de Mulhouse dans le Haut-Rhin, découvert et décrit par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924)[3]. Ses collections sont conservées au service de la carte géologique à Strasbourg[4].
-Étymologie
-L'épithète spécifique defectuosa signifie en latin « défectueux ».
-L'épithète spécifique foersteri honore l'entomologiste et paléontologue allemand Bruno Förster (1852-1924).
-Classement : super-famille
-En 2004 Szwedo et al. reclasse Oligonila dans la super-famille des Fulgoroidea remettant donc en cause la famille initiale des Fulgoridae[5],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Oligonila est décrit en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. Ce genre est pourvu de deux espèces Oligonila försteri, l'espèce type, et Oligonila defectuosa.
 </t>
         </is>
       </c>
@@ -548,20 +555,242 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens et holotypes viennent du gisement sannoisien de Brunstatt (ou Brunnstatt), près de Mulhouse dans le Haut-Rhin, découvert et décrit par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924). Ses collections sont conservées au service de la carte géologique à Strasbourg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique defectuosa signifie en latin « défectueux ».
+L'épithète spécifique foersteri honore l'entomologiste et paléontologue allemand Bruno Förster (1852-1924).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classement : super-famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004 Szwedo et al. reclasse Oligonila dans la super-famille des Fulgoroidea remettant donc en cause la famille initiale des Fulgoridae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-L'échantillon figuré ci-contre (Fig. 22 et 22a) et que B. Förster avait décrit sous le nom de Cixius loculatus est un insecte de 5 mm de longueur, de couleur brun jaunâtre. La tête présente un front presque aussi large que long. Les ailes antérieures dépassent nettement l'abdomen ; elles présentent des veines longitudinales, réunies par des nervures transversales au delà du milieu de l'aile[1].
-Dimensions
-La longueur de l'insecte est de 5 mm[1].
-Affinités
-Dans le genre Cixius, les veines longitudinales ne sont pourtant pas réunies par des veines transversales, caractère qui existe par contre dans les genres Anila et Kuvera, connus dans les régions indomalaisiennes. Mais Anila a aussi une veine oblique qui n'existe pas dans ce spécimen et Kuvera a un front plus court que large. Ces différences amènent Nicolas Théobald à proposer un nouveau genre : Oligonila, qu'il dédie à Förster[1].
-Förster avait étudié un échantillon auquel la tête manquait, mais dont les ailes étaient bien conservées (Fig. 22b). Leur nervation est presque identique à celle de l'échantillon précédent, mais il y a une cellule apicale en moins. Nicolas Théobald propose d'y voir une espèce différente : Oligonila defectuosa[6].
-Conditions de dépôt
-Le gisement de Brunstatt correspond à une aire de sédimentation du golfe marin oligocène (fossé rhénan) communiquant avec les mers septentrionales. Elle était à une certaine distance de la terre ferme, ce qui explique que les insectes brassés par les vagues ont souvent été abimés avant de tomber au fond [7].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échantillon figuré ci-contre (Fig. 22 et 22a) et que B. Förster avait décrit sous le nom de Cixius loculatus est un insecte de 5 mm de longueur, de couleur brun jaunâtre. La tête présente un front presque aussi large que long. Les ailes antérieures dépassent nettement l'abdomen ; elles présentent des veines longitudinales, réunies par des nervures transversales au delà du milieu de l'aile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de l'insecte est de 5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le genre Cixius, les veines longitudinales ne sont pourtant pas réunies par des veines transversales, caractère qui existe par contre dans les genres Anila et Kuvera, connus dans les régions indomalaisiennes. Mais Anila a aussi une veine oblique qui n'existe pas dans ce spécimen et Kuvera a un front plus court que large. Ces différences amènent Nicolas Théobald à proposer un nouveau genre : Oligonila, qu'il dédie à Förster.
+Förster avait étudié un échantillon auquel la tête manquait, mais dont les ailes étaient bien conservées (Fig. 22b). Leur nervation est presque identique à celle de l'échantillon précédent, mais il y a une cellule apicale en moins. Nicolas Théobald propose d'y voir une espèce différente : Oligonila defectuosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oligonila_defectuosa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conditions de dépôt</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gisement de Brunstatt correspond à une aire de sédimentation du golfe marin oligocène (fossé rhénan) communiquant avec les mers septentrionales. Elle était à une certaine distance de la terre ferme, ce qui explique que les insectes brassés par les vagues ont souvent été abimés avant de tomber au fond .
 </t>
         </is>
       </c>
